--- a/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/55.funcao_soma/47+-+Função+SOMA.xlsx
+++ b/curso-completo/excel_365_do_zero_ao_avancado/4.basico_expressoes_e_funcoes/55.funcao_soma/47+-+Função+SOMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aula\Desktop\Curso de Excel\Básico\Capítulo 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel-nivel-especialista\curso-completo\excel_365_do_zero_ao_avancado\4.basico_expressoes_e_funcoes\55.funcao_soma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D6C6BC-1FA5-4C9B-B556-2520CE872067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C2D63-6256-4D84-8C7F-81655279273C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{851E89D6-2654-4F34-8E0C-E870017DE456}"/>
   </bookViews>
   <sheets>
     <sheet name="Função Soma" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -970,7 +962,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -996,7 +988,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,9 +1080,6 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1169,12 +1157,11 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1223,9 +1210,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1545,31 +1530,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5155D-10BE-4AB6-89E0-20C2DF17DBAD}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="8" max="8" width="21.1796875" customWidth="1"/>
-    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="21.21875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="96" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1579,12 +1564,12 @@
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="98" t="s">
+      <c r="F5" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="98"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5" s="93"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1595,7 +1580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1626,7 +1611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1646,7 +1631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1666,7 +1651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>17</v>
       </c>
@@ -1686,7 +1671,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>18</v>
       </c>
@@ -1706,7 +1691,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -1726,44 +1711,53 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13"/>
+      <c r="C17" s="107">
+        <f>SUM(C12:C16)</f>
+        <v>278</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="107">
+        <f>SUM(F12:F16)</f>
+        <v>278</v>
+      </c>
       <c r="H17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="20" spans="2:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="97" t="s">
+      <c r="I17" s="107">
+        <f>SUM(I12:I16)</f>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B20" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-    </row>
-    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+    </row>
+    <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8">
         <v>16</v>
       </c>
@@ -1773,21 +1767,27 @@
       <c r="D23" s="11">
         <v>14</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E23" s="15">
+        <f>SUM(B23,C23,D23)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="9">
         <v>88</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>12</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>5</v>
       </c>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E24" s="17">
+        <f t="shared" ref="E24:E39" si="0">SUM(B24,C24,D24)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8">
         <v>68</v>
       </c>
@@ -1797,21 +1797,27 @@
       <c r="D25" s="11">
         <v>34</v>
       </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E25" s="15">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="9">
         <v>47</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="16">
         <v>79</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="16">
         <v>12</v>
       </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E26" s="17">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>59</v>
       </c>
@@ -1821,21 +1827,27 @@
       <c r="D27" s="11">
         <v>65</v>
       </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E27" s="15">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="9">
         <v>81</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="16">
         <v>66</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="16">
         <v>79</v>
       </c>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E28" s="17">
+        <f t="shared" si="0"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8">
         <v>83</v>
       </c>
@@ -1845,21 +1857,27 @@
       <c r="D29" s="11">
         <v>69</v>
       </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E29" s="15">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="9">
         <v>29</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="16">
         <v>88</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="16">
         <v>66</v>
       </c>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E30" s="17">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8">
         <v>49</v>
       </c>
@@ -1869,21 +1887,27 @@
       <c r="D31" s="11">
         <v>26</v>
       </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="E31" s="15">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="9">
         <v>41</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <v>47</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <v>77</v>
       </c>
-      <c r="E32" s="18"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E32" s="17">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="8">
         <v>13</v>
       </c>
@@ -1893,21 +1917,27 @@
       <c r="D33" s="11">
         <v>15</v>
       </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E33" s="15">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="9">
         <v>16</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <v>81</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <v>14</v>
       </c>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E34" s="17">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="8">
         <v>15</v>
       </c>
@@ -1917,21 +1947,27 @@
       <c r="D35" s="11">
         <v>30</v>
       </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E35" s="15">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="9">
         <v>26</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <v>26</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <v>23</v>
       </c>
-      <c r="E36" s="18"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="17">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="8">
         <v>29</v>
       </c>
@@ -1941,31 +1977,40 @@
       <c r="D37" s="11">
         <v>79</v>
       </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E37" s="15">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="9">
         <v>49</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>30</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="16">
         <v>69</v>
       </c>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="19">
+      <c r="E38" s="17">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="18">
         <v>41</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>23</v>
       </c>
-      <c r="D39" s="20">
+      <c r="D39" s="19">
         <v>66</v>
       </c>
-      <c r="E39" s="21"/>
+      <c r="E39" s="20">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1983,51 +2028,51 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="22"/>
-    </row>
-    <row r="2" spans="1:7" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="99" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="11">
@@ -2042,28 +2087,34 @@
       <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
+      <c r="G5" s="15">
+        <f>SUM(C5:F5)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="31" t="s">
+      <c r="G6" s="17">
+        <f t="shared" ref="G6:G9" si="0">SUM(C6:F6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="11">
@@ -2078,68 +2129,89 @@
       <c r="F7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="32" t="s">
+      <c r="G7" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="33" t="s">
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <v>3</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>0</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>1</v>
       </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
+      <c r="C11" s="25">
+        <f>SUM(C5:C9)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="27" t="s">
+      <c r="C12" s="27">
+        <f>SUM(D5:D9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="29" t="s">
+      <c r="C13" s="27">
+        <f>SUM(E5:E9)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="29">
+        <f>SUM(F5:F9)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2153,302 +2225,364 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1CEED8-7ACA-4F03-97FB-13D80C4A38D2}">
   <dimension ref="D2:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="8" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="100" t="s">
+    <row r="2" spans="4:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="D2" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-    </row>
-    <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="36" t="s">
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+    </row>
+    <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="39">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="38">
         <v>1</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <v>3500</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="34">
         <v>4850</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>5100</v>
       </c>
-      <c r="I5" s="45"/>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="39">
+      <c r="I5" s="44">
+        <f>SUM(F5:H5)</f>
+        <v>13450</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="38">
         <v>2</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <v>3300</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <v>4200</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>4850</v>
       </c>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="39">
+      <c r="I6" s="44">
+        <f t="shared" ref="I6:I10" si="0">SUM(F6:H6)</f>
+        <v>12350</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="38">
         <v>3</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="34">
         <v>5200</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>6500</v>
       </c>
-      <c r="H7" s="35">
+      <c r="H7" s="34">
         <v>7100</v>
       </c>
-      <c r="I7" s="45"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="39">
+      <c r="I7" s="44">
+        <f t="shared" si="0"/>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="38">
         <v>4</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>2500</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <v>2950</v>
       </c>
-      <c r="H8" s="35">
+      <c r="H8" s="34">
         <v>2450</v>
       </c>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="39">
+      <c r="I8" s="44">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="38">
         <v>5</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>3650</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="34">
         <v>3820</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>2800</v>
       </c>
-      <c r="I9" s="45"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="39">
+      <c r="I9" s="44">
+        <f t="shared" si="0"/>
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="38">
         <v>6</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="34">
         <v>4200</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>3420</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="34">
         <v>3985</v>
       </c>
-      <c r="I10" s="45"/>
-    </row>
-    <row r="11" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="40"/>
-      <c r="E11" s="41" t="s">
+      <c r="I10" s="44">
+        <f t="shared" si="0"/>
+        <v>11605</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="39"/>
+      <c r="E11" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="44"/>
-    </row>
-    <row r="12" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="36" t="s">
+      <c r="F11" s="90">
+        <f>SUM(F5:F10)</f>
+        <v>22350</v>
+      </c>
+      <c r="G11" s="90">
+        <f>SUM(G5:G10)</f>
+        <v>25740</v>
+      </c>
+      <c r="H11" s="90">
+        <f>SUM(H5:H10)</f>
+        <v>26285</v>
+      </c>
+      <c r="I11" s="43">
+        <f>SUM(I5:I10)</f>
+        <v>74375</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="42">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="41">
         <v>1</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="34">
         <v>3600</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="34">
         <v>3854</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="34">
         <v>2985</v>
       </c>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="42">
+      <c r="I14" s="44">
+        <f>SUM(F14:H14)</f>
+        <v>10439</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="41">
         <v>2</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="34">
         <v>2650</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="34">
         <v>3824</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="34">
         <v>2658</v>
       </c>
-      <c r="I15" s="45"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="42">
+      <c r="I15" s="44">
+        <f t="shared" ref="I15:I19" si="1">SUM(F15:H15)</f>
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="41">
         <v>3</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="34">
         <v>4625</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="34">
         <v>3852</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="34">
         <v>4963</v>
       </c>
-      <c r="I16" s="45"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D17" s="42">
+      <c r="I16" s="44">
+        <f t="shared" si="1"/>
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D17" s="41">
         <v>4</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <v>2684</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>3584</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>2896</v>
       </c>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="42">
+      <c r="I17" s="44">
+        <f t="shared" si="1"/>
+        <v>9164</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D18" s="41">
         <v>5</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="34">
         <v>3258</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>3562</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="34">
         <v>3247</v>
       </c>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="42">
+      <c r="I18" s="44">
+        <f t="shared" si="1"/>
+        <v>10067</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D19" s="41">
         <v>6</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <v>3825</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="34">
         <v>3647</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <v>2854</v>
       </c>
-      <c r="I19" s="45"/>
-    </row>
-    <row r="20" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D20" s="43"/>
-      <c r="E20" s="41" t="s">
+      <c r="I19" s="44">
+        <f t="shared" si="1"/>
+        <v>10326</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="42"/>
+      <c r="E20" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="44"/>
+      <c r="F20" s="90">
+        <f>SUM(F14:F19)</f>
+        <v>20642</v>
+      </c>
+      <c r="G20" s="90">
+        <f t="shared" ref="G20:I20" si="2">SUM(G14:G19)</f>
+        <v>22323</v>
+      </c>
+      <c r="H20" s="90">
+        <f t="shared" si="2"/>
+        <v>19603</v>
+      </c>
+      <c r="I20" s="90">
+        <f t="shared" si="2"/>
+        <v>62568</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2463,274 +2597,327 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDD898D-E1B8-4E31-B5C3-96406AAF5F15}">
   <dimension ref="D2:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="D2" s="99" t="s">
+    <row r="2" spans="4:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="D2" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-    </row>
-    <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="47" t="s">
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+    </row>
+    <row r="3" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="48" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="50" t="s">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="45">
         <v>800</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="45">
         <v>1858</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>184</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="45">
         <v>556</v>
       </c>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="50" t="s">
+      <c r="I5" s="50">
+        <f>SUM(E5:H5)</f>
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D6" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>800</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>1512</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>126</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>798</v>
       </c>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="50" t="s">
+      <c r="I6" s="50">
+        <f t="shared" ref="I6:I16" si="0">SUM(E6:H6)</f>
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="45">
         <v>800</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="45">
         <v>1332</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>188</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="45">
         <v>367</v>
       </c>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="50" t="s">
+      <c r="I7" s="50">
+        <f t="shared" si="0"/>
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="45">
         <v>800</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="45">
         <v>1214</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>151</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>376</v>
       </c>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="50" t="s">
+      <c r="I8" s="50">
+        <f t="shared" si="0"/>
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>800</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="45">
         <v>1536</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>88</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>446</v>
       </c>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="50" t="s">
+      <c r="I9" s="50">
+        <f t="shared" si="0"/>
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="45">
         <v>800</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="45">
         <v>1867</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>163</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="45">
         <v>701</v>
       </c>
-      <c r="I10" s="51"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="50" t="s">
+      <c r="I10" s="50">
+        <f t="shared" si="0"/>
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="45">
         <v>800</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="45">
         <v>1085</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>87</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>362</v>
       </c>
-      <c r="I11" s="51"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="50" t="s">
+      <c r="I11" s="50">
+        <f t="shared" si="0"/>
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="45">
         <v>900</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="45">
         <v>1860</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>145</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>688</v>
       </c>
-      <c r="I12" s="51"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="50" t="s">
+      <c r="I12" s="50">
+        <f t="shared" si="0"/>
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="45">
         <v>900</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="45">
         <v>1302</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="45">
         <v>217</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="45">
         <v>734</v>
       </c>
-      <c r="I13" s="51"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="50" t="s">
+      <c r="I13" s="50">
+        <f t="shared" si="0"/>
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="45">
         <v>900</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="45">
         <v>1682</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="45">
         <v>175</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="45">
         <v>373</v>
       </c>
-      <c r="I14" s="51"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="50" t="s">
+      <c r="I14" s="50">
+        <f t="shared" si="0"/>
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="45">
         <v>900</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="45">
         <v>1763</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="45">
         <v>197</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="45">
         <v>598</v>
       </c>
-      <c r="I15" s="51"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="50" t="s">
+      <c r="I15" s="50">
+        <f t="shared" si="0"/>
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="45">
         <v>900</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="45">
         <v>1270</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="45">
         <v>204</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="45">
         <v>438</v>
       </c>
-      <c r="I16" s="51"/>
-    </row>
-    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D17" s="52" t="s">
+      <c r="I16" s="50">
+        <f t="shared" si="0"/>
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="17" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="E17" s="52">
+        <f>SUM(E5:E16)</f>
+        <v>10100</v>
+      </c>
+      <c r="F17" s="52">
+        <f t="shared" ref="F17:I17" si="1">SUM(F5:F16)</f>
+        <v>18281</v>
+      </c>
+      <c r="G17" s="52">
+        <f t="shared" si="1"/>
+        <v>1925</v>
+      </c>
+      <c r="H17" s="52">
+        <f t="shared" si="1"/>
+        <v>6437</v>
+      </c>
+      <c r="I17" s="52">
+        <f t="shared" si="1"/>
+        <v>36743</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2744,198 +2931,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF098519-9067-4ADF-9AAE-E93436AE6188}">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="101" t="s">
+    <row r="2" spans="2:11" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B4" s="59" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="102" t="s">
+      <c r="I4" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="103"/>
-      <c r="K4" s="104"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="63">
+      <c r="J4" s="98"/>
+      <c r="K4" s="99"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="61">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>100</v>
       </c>
-      <c r="E5" s="55">
+      <c r="E5" s="53">
         <v>9.18</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="I5" s="69" t="s">
+      <c r="F5" s="69">
+        <f>D5*E5</f>
+        <v>918</v>
+      </c>
+      <c r="G5" s="70">
+        <f>F5+F5*0.07</f>
+        <v>982.26</v>
+      </c>
+      <c r="I5" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="106"/>
-    </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="64">
+      <c r="J5" s="100">
+        <f>SUM(F5,F8,F9)</f>
+        <v>1990.02</v>
+      </c>
+      <c r="K5" s="101"/>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="62">
         <v>2</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="57">
+      <c r="D6" s="55">
         <v>150</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="56">
         <v>9.18</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="I6" s="70" t="s">
+      <c r="F6" s="71">
+        <f t="shared" ref="F6:F11" si="0">D6*E6</f>
+        <v>1377</v>
+      </c>
+      <c r="G6" s="72">
+        <f t="shared" ref="G6:G11" si="1">F6+F6*0.07</f>
+        <v>1473.39</v>
+      </c>
+      <c r="I6" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="63">
+      <c r="J6" s="102">
+        <f>SUM(F6,F7,F10)</f>
+        <v>3621</v>
+      </c>
+      <c r="K6" s="103"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="61">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>30</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="53">
         <v>10.199999999999999</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="F7" s="69">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="G7" s="70">
+        <f t="shared" si="1"/>
+        <v>327.42</v>
+      </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="64">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="62">
         <v>4</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="57">
+      <c r="D8" s="55">
         <v>25</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="56">
         <v>10.199999999999999</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="74"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="63">
+      <c r="F8" s="71">
+        <f t="shared" si="0"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G8" s="72">
+        <f t="shared" si="1"/>
+        <v>272.84999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="61">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>89</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>9.18</v>
       </c>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="64">
+      <c r="F9" s="69">
+        <f t="shared" si="0"/>
+        <v>817.02</v>
+      </c>
+      <c r="G9" s="70">
+        <f t="shared" si="1"/>
+        <v>874.21140000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="62">
         <v>6</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="57">
+      <c r="D10" s="55">
         <v>190</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="56">
         <v>10.199999999999999</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-    </row>
-    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="65">
+      <c r="F10" s="71">
+        <f t="shared" si="0"/>
+        <v>1937.9999999999998</v>
+      </c>
+      <c r="G10" s="72">
+        <f t="shared" si="1"/>
+        <v>2073.66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="63">
         <v>7</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="65">
         <v>220</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="66">
         <v>10.199999999999999</v>
       </c>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D12" s="24"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D13" s="24"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D14" s="24"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D15" s="24"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D16" s="24"/>
-      <c r="E16" s="23"/>
+      <c r="F11" s="73">
+        <f t="shared" si="0"/>
+        <v>2244</v>
+      </c>
+      <c r="G11" s="74">
+        <f t="shared" si="1"/>
+        <v>2401.08</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="23"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="23"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="23"/>
+      <c r="E16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2952,185 +3189,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65921783-AF23-476C-8318-153AA46C03B3}">
   <dimension ref="B1:H14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.90625" customWidth="1"/>
-    <col min="4" max="7" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" s="22"/>
-    </row>
-    <row r="2" spans="2:8" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="C2" s="109" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="2:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="C2" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C4" s="110" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+    </row>
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="111"/>
-      <c r="D5" s="95">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="106"/>
+      <c r="D5" s="89">
         <v>95000</v>
       </c>
-      <c r="E5" s="95">
+      <c r="E5" s="89">
         <v>150000</v>
       </c>
-      <c r="F5" s="95">
+      <c r="F5" s="89">
         <v>192000</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="89">
         <v>210000</v>
       </c>
-      <c r="H5" s="88"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="86">
+        <f>SUM(D5:G5)</f>
+        <v>647000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C8" s="31" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="79">
+      <c r="D8" s="77">
         <v>25000</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="77">
         <v>36500</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="77">
         <v>42000</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="77">
         <v>42000</v>
       </c>
-      <c r="H8" s="80"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C9" s="32" t="s">
+      <c r="H8" s="78">
+        <f>SUM(D8:G8)</f>
+        <v>145500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="79">
         <v>8000</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="79">
         <v>11250</v>
       </c>
-      <c r="F9" s="81">
+      <c r="F9" s="79">
         <v>15500</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="79">
         <v>18600</v>
       </c>
-      <c r="H9" s="82"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C10" s="31" t="s">
+      <c r="H9" s="80">
+        <f t="shared" ref="H9:H11" si="0">SUM(D9:G9)</f>
+        <v>53350</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="79">
+      <c r="D10" s="77">
         <v>12300</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="77">
         <v>14520</v>
       </c>
-      <c r="F10" s="79">
+      <c r="F10" s="77">
         <v>18000</v>
       </c>
-      <c r="G10" s="79">
+      <c r="G10" s="77">
         <v>21000</v>
       </c>
-      <c r="H10" s="80"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="83" t="s">
+      <c r="H10" s="78">
+        <f t="shared" si="0"/>
+        <v>65820</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="84">
+      <c r="D11" s="82">
         <v>6500</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="82">
         <v>8200</v>
       </c>
-      <c r="F11" s="84">
+      <c r="F11" s="82">
         <v>6300</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="82">
         <v>7400</v>
       </c>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C13" s="86" t="s">
+      <c r="H11" s="83">
+        <f t="shared" si="0"/>
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="91"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C14" s="87" t="s">
+      <c r="D13" s="87">
+        <f>SUM(D8:D11)</f>
+        <v>51800</v>
+      </c>
+      <c r="E13" s="87">
+        <f t="shared" ref="E13:H13" si="1">SUM(E8:E11)</f>
+        <v>70470</v>
+      </c>
+      <c r="F13" s="87">
+        <f t="shared" si="1"/>
+        <v>81800</v>
+      </c>
+      <c r="G13" s="87">
+        <f t="shared" si="1"/>
+        <v>89000</v>
+      </c>
+      <c r="H13" s="87">
+        <f t="shared" si="1"/>
+        <v>293070</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
+      <c r="D14" s="88">
+        <f>D5-D13</f>
+        <v>43200</v>
+      </c>
+      <c r="E14" s="88">
+        <f t="shared" ref="E14:H14" si="2">E5-E13</f>
+        <v>79530</v>
+      </c>
+      <c r="F14" s="88">
+        <f t="shared" si="2"/>
+        <v>110200</v>
+      </c>
+      <c r="G14" s="88">
+        <f t="shared" si="2"/>
+        <v>121000</v>
+      </c>
+      <c r="H14" s="88">
+        <f t="shared" si="2"/>
+        <v>353930</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3150,29 +3434,29 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.77734375" style="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="96" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:3" s="91" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="96" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" s="91" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
@@ -3180,7 +3464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
@@ -3188,18 +3472,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
